--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/104.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/104.xlsx
@@ -479,13 +479,13 @@
         <v>-13.45733566664675</v>
       </c>
       <c r="E2" t="n">
-        <v>-20.82231460394277</v>
+        <v>-20.66951358332421</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.365553349833251</v>
+        <v>-3.304010531392525</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.867646566866201</v>
+        <v>-8.563848569162973</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-13.11017500333433</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.23612992317218</v>
+        <v>-21.04517509296422</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.70376995587956</v>
+        <v>-3.673296776078079</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.822188581017624</v>
+        <v>-8.566811307324322</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-12.68834564384555</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.82667306262684</v>
+        <v>-21.63584534659741</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.390198833449369</v>
+        <v>-3.405330309702471</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.465887538570597</v>
+        <v>-8.255278900757634</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-12.2371168620534</v>
       </c>
       <c r="E5" t="n">
-        <v>-21.97213079493129</v>
+        <v>-21.83986360315378</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.146613844319065</v>
+        <v>-3.085677262729837</v>
       </c>
       <c r="G5" t="n">
-        <v>-8.236906012951769</v>
+        <v>-8.073520292466338</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-11.73367633417208</v>
       </c>
       <c r="E6" t="n">
-        <v>-22.34865765878675</v>
+        <v>-22.25733589951964</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.143523991979175</v>
+        <v>-3.066414575674192</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.532141006065379</v>
+        <v>-7.375536338104358</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-11.18458944517555</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.79269192946056</v>
+        <v>-22.75561370138188</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.193582533289517</v>
+        <v>-3.195015012301523</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.478511136176538</v>
+        <v>-6.352066751577516</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-10.5759220183504</v>
       </c>
       <c r="E8" t="n">
-        <v>-23.29394224749788</v>
+        <v>-23.28278553382759</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.053532042579872</v>
+        <v>-2.963500981125633</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.943203996304287</v>
+        <v>-5.855891222668052</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-9.903646437477519</v>
       </c>
       <c r="E9" t="n">
-        <v>-23.49067588382254</v>
+        <v>-23.46488637259957</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.895397115469508</v>
+        <v>-2.803650012604982</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.155848996415101</v>
+        <v>-5.146246986928481</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-9.164954121738189</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.9578742690318</v>
+        <v>-23.88801036090359</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.191250477013999</v>
+        <v>-3.094687702385562</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.109518413778565</v>
+        <v>-4.15470750424946</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-8.356413958419733</v>
       </c>
       <c r="E11" t="n">
-        <v>-24.36009775297976</v>
+        <v>-24.34860369783565</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.255785367657276</v>
+        <v>-3.182988055408912</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.130367674500307</v>
+        <v>-3.160835965294921</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-7.496820693050532</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.81501495293933</v>
+        <v>-24.75890871013462</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.006074452922728</v>
+        <v>-2.929106817816886</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.244332960009311</v>
+        <v>-2.273852783471743</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-6.594413971469857</v>
       </c>
       <c r="E13" t="n">
-        <v>-25.4779496170724</v>
+        <v>-25.49160950225856</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.031643958836693</v>
+        <v>-2.923029782281311</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.986780078260231</v>
+        <v>-2.065605535975501</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-5.693021907756509</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.87363160983243</v>
+        <v>-25.85622185637934</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.737110629146269</v>
+        <v>-2.537927600381287</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.053400221270031</v>
+        <v>-1.156132922564515</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-4.817180016977971</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.58896176055822</v>
+        <v>-26.53830187140325</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.6248296974407</v>
+        <v>-2.443080867163137</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1385888123603735</v>
+        <v>-0.2014321066276983</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.021393839632266</v>
       </c>
       <c r="E16" t="n">
-        <v>-27.17666927603006</v>
+        <v>-27.0677055354837</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.467090779886556</v>
+        <v>-2.299803631921328</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3221169717296228</v>
+        <v>0.1871657151821695</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-3.339251170843929</v>
       </c>
       <c r="E17" t="n">
-        <v>-28.18293689189567</v>
+        <v>-28.11845333582449</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.495627912968739</v>
+        <v>-2.332476864812921</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7183220882244101</v>
+        <v>0.6064420550819285</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-2.815729529759201</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.84075521034251</v>
+        <v>-28.69179694912134</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.479381743149981</v>
+        <v>-2.35891172494233</v>
       </c>
       <c r="G18" t="n">
-        <v>1.016629731216093</v>
+        <v>0.8767503557467891</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-2.474240997652998</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.32937477913915</v>
+        <v>-29.19611756347109</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.486813033587691</v>
+        <v>-2.342274434574218</v>
       </c>
       <c r="G19" t="n">
-        <v>1.416794943273081</v>
+        <v>1.363587881540446</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-2.329632950090144</v>
       </c>
       <c r="E20" t="n">
-        <v>-30.12940452933082</v>
+        <v>-29.984125245777</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.214588242231</v>
+        <v>-2.143746532729403</v>
       </c>
       <c r="G20" t="n">
-        <v>1.380797185711986</v>
+        <v>1.477751080889777</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-2.382165998675005</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.9292020516963</v>
+        <v>-30.77537922864255</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.077080035092151</v>
+        <v>-1.963498627559982</v>
       </c>
       <c r="G21" t="n">
-        <v>1.087363882566618</v>
+        <v>1.212150893837755</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.609877466070273</v>
       </c>
       <c r="E22" t="n">
-        <v>-31.33935550478239</v>
+        <v>-31.21921305003483</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.049804265781632</v>
+        <v>-1.900293546784506</v>
       </c>
       <c r="G22" t="n">
-        <v>1.141778528995381</v>
+        <v>1.247209962080402</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.988806091864479</v>
       </c>
       <c r="E23" t="n">
-        <v>-32.04211601885335</v>
+        <v>-31.82824641346016</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.878317460917723</v>
+        <v>-1.751995301490375</v>
       </c>
       <c r="G23" t="n">
-        <v>1.360938039818578</v>
+        <v>1.521688585602741</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-3.469313288430724</v>
       </c>
       <c r="E24" t="n">
-        <v>-32.44346437057213</v>
+        <v>-32.29521257084323</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.772416683173478</v>
+        <v>-1.619879668925732</v>
       </c>
       <c r="G24" t="n">
-        <v>1.191328613591564</v>
+        <v>1.373933020070838</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-4.012557488303949</v>
       </c>
       <c r="E25" t="n">
-        <v>-33.0092911358111</v>
+        <v>-32.80803761263798</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.601736564442611</v>
+        <v>-1.475047729500244</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8857607954025133</v>
+        <v>1.154421500753223</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-4.559451969305771</v>
       </c>
       <c r="E26" t="n">
-        <v>-32.72536450651845</v>
+        <v>-32.55983740102531</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.634468465416606</v>
+        <v>-1.485461314126773</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8553805067315038</v>
+        <v>1.171973035405448</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-5.06625709239397</v>
       </c>
       <c r="E27" t="n">
-        <v>-33.26110676800185</v>
+        <v>-33.10190114838764</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.407711437922224</v>
+        <v>-1.251101880954338</v>
       </c>
       <c r="G27" t="n">
-        <v>1.066629604444032</v>
+        <v>1.43968038441711</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-5.482760767012781</v>
       </c>
       <c r="E28" t="n">
-        <v>-32.98818773767006</v>
+        <v>-32.77622240045153</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.328328633424126</v>
+        <v>-1.175385831606426</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9545148989719382</v>
+        <v>1.223561835865135</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-5.774531943084687</v>
       </c>
       <c r="E29" t="n">
-        <v>-33.31941795290355</v>
+        <v>-33.07600896802045</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.290345939075064</v>
+        <v>-1.187329675382299</v>
       </c>
       <c r="G29" t="n">
-        <v>1.565547866205835</v>
+        <v>1.803324715178244</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-5.914505779993354</v>
       </c>
       <c r="E30" t="n">
-        <v>-33.51647670818485</v>
+        <v>-33.26173500538425</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.291010844008964</v>
+        <v>-1.101508048840474</v>
       </c>
       <c r="G30" t="n">
-        <v>1.764369108462666</v>
+        <v>1.932814951055353</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-5.890132166975012</v>
       </c>
       <c r="E31" t="n">
-        <v>-33.19521517795301</v>
+        <v>-32.9200080924075</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.56188138046352</v>
+        <v>-1.296075855123088</v>
       </c>
       <c r="G31" t="n">
-        <v>2.346630270284768</v>
+        <v>2.503968289275825</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-5.701782378508179</v>
       </c>
       <c r="E32" t="n">
-        <v>-33.07565207051917</v>
+        <v>-32.79546553147971</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.679794448079775</v>
+        <v>-1.480371857978314</v>
       </c>
       <c r="G32" t="n">
-        <v>2.496253436439833</v>
+        <v>2.666033977907189</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-5.361029600786993</v>
       </c>
       <c r="E33" t="n">
-        <v>-32.29497056500333</v>
+        <v>-32.09577286921774</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.853349302848389</v>
+        <v>-1.579511139225615</v>
       </c>
       <c r="G33" t="n">
-        <v>3.283412876054341</v>
+        <v>3.333280746096874</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-4.892862505786149</v>
       </c>
       <c r="E34" t="n">
-        <v>-32.12422444467975</v>
+        <v>-31.96510927169257</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.081504586306708</v>
+        <v>-1.840163651328319</v>
       </c>
       <c r="G34" t="n">
-        <v>3.847946498977011</v>
+        <v>3.998068343832501</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.325982519995396</v>
       </c>
       <c r="E35" t="n">
-        <v>-31.64896653165038</v>
+        <v>-31.4432151221597</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.261850271613467</v>
+        <v>-1.967932956788274</v>
       </c>
       <c r="G35" t="n">
-        <v>4.307689148714225</v>
+        <v>4.402408767753835</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-3.700627490453518</v>
       </c>
       <c r="E36" t="n">
-        <v>-31.98468729969114</v>
+        <v>-31.72928069195663</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.28396813867939</v>
+        <v>-2.01923819484968</v>
       </c>
       <c r="G36" t="n">
-        <v>4.615794361467205</v>
+        <v>4.721093791366819</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.052395640019779</v>
       </c>
       <c r="E37" t="n">
-        <v>-31.16438528252581</v>
+        <v>-30.93525464219754</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.259791999722496</v>
+        <v>-1.937914454625417</v>
       </c>
       <c r="G37" t="n">
-        <v>4.831663570668967</v>
+        <v>4.950789111988217</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-2.425341322714605</v>
       </c>
       <c r="E38" t="n">
-        <v>-30.57058850900122</v>
+        <v>-30.31853575997742</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.513673237314522</v>
+        <v>-2.263644537133625</v>
       </c>
       <c r="G38" t="n">
-        <v>5.128968967252932</v>
+        <v>5.316633495839462</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-1.851221045850985</v>
       </c>
       <c r="E39" t="n">
-        <v>-29.80494069960114</v>
+        <v>-29.54044787260447</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.52530907365778</v>
+        <v>-2.292294117373746</v>
       </c>
       <c r="G39" t="n">
-        <v>5.417860383018937</v>
+        <v>5.513103125793307</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-1.363949053567318</v>
       </c>
       <c r="E40" t="n">
-        <v>-29.52503038944966</v>
+        <v>-29.23215443308712</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.69879059332339</v>
+        <v>-2.484842763820325</v>
       </c>
       <c r="G40" t="n">
-        <v>5.273356007053532</v>
+        <v>5.377765637703367</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-0.9836160079369728</v>
       </c>
       <c r="E41" t="n">
-        <v>-29.0270508170063</v>
+        <v>-28.72625711402279</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.643686596926392</v>
+        <v>-2.396356628536031</v>
       </c>
       <c r="G41" t="n">
-        <v>5.705348653814136</v>
+        <v>5.805983971162713</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-0.7261765855795956</v>
       </c>
       <c r="E42" t="n">
-        <v>-28.43035730691307</v>
+        <v>-28.09383718624958</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.646091988304914</v>
+        <v>-2.366255013256436</v>
       </c>
       <c r="G42" t="n">
-        <v>5.560790498773195</v>
+        <v>5.689879836087218</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.5978655247004468</v>
       </c>
       <c r="E43" t="n">
-        <v>-27.80207592345269</v>
+        <v>-27.52438522241879</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.690973071343193</v>
+        <v>-2.450086814003426</v>
       </c>
       <c r="G43" t="n">
-        <v>5.928531817288803</v>
+        <v>5.997848156647923</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.5943203628586328</v>
       </c>
       <c r="E44" t="n">
-        <v>-27.12332043309829</v>
+        <v>-26.82525968495339</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.754266154242274</v>
+        <v>-2.538411612061112</v>
       </c>
       <c r="G44" t="n">
-        <v>5.640867542246395</v>
+        <v>5.806521761918074</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.7087880907999767</v>
       </c>
       <c r="E45" t="n">
-        <v>-26.26000982252472</v>
+        <v>-25.99748970979885</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.611712492016768</v>
+        <v>-2.417702032516982</v>
       </c>
       <c r="G45" t="n">
-        <v>5.528904395987175</v>
+        <v>5.717268052555675</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.9189908282631669</v>
       </c>
       <c r="E46" t="n">
-        <v>-25.67316277226145</v>
+        <v>-25.39882592993825</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.51114073175746</v>
+        <v>-2.280389385652808</v>
       </c>
       <c r="G46" t="n">
-        <v>5.488208302826975</v>
+        <v>5.67897246176713</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-1.206387539933363</v>
       </c>
       <c r="E47" t="n">
-        <v>-24.85145272111845</v>
+        <v>-24.56053236750267</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.52991940713328</v>
+        <v>-2.265336133509578</v>
       </c>
       <c r="G47" t="n">
-        <v>5.48725005748106</v>
+        <v>5.639826183783742</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-1.53799790068649</v>
       </c>
       <c r="E48" t="n">
-        <v>-24.50681684905588</v>
+        <v>-24.26560302825603</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.479078624724232</v>
+        <v>-2.223412899625782</v>
       </c>
       <c r="G48" t="n">
-        <v>5.332336985895993</v>
+        <v>5.522294458703106</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-1.890643681308353</v>
       </c>
       <c r="E49" t="n">
-        <v>-23.49080788700795</v>
+        <v>-23.22351610357997</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.444806686587158</v>
+        <v>-2.206193817440507</v>
       </c>
       <c r="G49" t="n">
-        <v>5.048500803230379</v>
+        <v>5.303130058873044</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.234482575289222</v>
       </c>
       <c r="E50" t="n">
-        <v>-23.0945978815063</v>
+        <v>-22.87437256718611</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.292235449291343</v>
+        <v>-2.066216661833865</v>
       </c>
       <c r="G50" t="n">
-        <v>4.9288032481077</v>
+        <v>5.070506223138363</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-2.550050831166356</v>
       </c>
       <c r="E51" t="n">
-        <v>-22.69815320367503</v>
+        <v>-22.5603761011585</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.071325674009791</v>
+        <v>-1.805422368532021</v>
       </c>
       <c r="G51" t="n">
-        <v>4.789041208803202</v>
+        <v>4.927043205635611</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-2.818552316331169</v>
       </c>
       <c r="E52" t="n">
-        <v>-21.8292642362663</v>
+        <v>-21.681376667549</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.920196693739717</v>
+        <v>-1.61872586330514</v>
       </c>
       <c r="G52" t="n">
-        <v>4.657096691478902</v>
+        <v>4.85363965653575</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.029026560157543</v>
       </c>
       <c r="E53" t="n">
-        <v>-20.83829676739071</v>
+        <v>-20.72657318246797</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.029509998277068</v>
+        <v>-1.752195750771918</v>
       </c>
       <c r="G53" t="n">
-        <v>4.485463216408986</v>
+        <v>4.626207946093733</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.17607338500362</v>
       </c>
       <c r="E54" t="n">
-        <v>-20.19977291454415</v>
+        <v>-20.17759149038896</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.702230100592047</v>
+        <v>-1.397165850110289</v>
       </c>
       <c r="G54" t="n">
-        <v>4.59648278434289</v>
+        <v>4.787506060646991</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.259114031265648</v>
       </c>
       <c r="E55" t="n">
-        <v>-19.52983719257767</v>
+        <v>-19.45080150756712</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.759891047580442</v>
+        <v>-1.489704972087255</v>
       </c>
       <c r="G55" t="n">
-        <v>4.090739468994874</v>
+        <v>4.315384445522748</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.284968744013719</v>
       </c>
       <c r="E56" t="n">
-        <v>-19.09810855218787</v>
+        <v>-19.12806838626833</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.907226158521791</v>
+        <v>-1.638374781903271</v>
       </c>
       <c r="G56" t="n">
-        <v>4.177944684480035</v>
+        <v>4.392943650459487</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-3.261785588918953</v>
       </c>
       <c r="E57" t="n">
-        <v>-18.64698033255016</v>
+        <v>-18.73802341842585</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.873399120009607</v>
+        <v>-1.597698244770539</v>
       </c>
       <c r="G57" t="n">
-        <v>3.682688288861551</v>
+        <v>3.963913741860233</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-3.205815373651668</v>
       </c>
       <c r="E58" t="n">
-        <v>-17.68148947845807</v>
+        <v>-17.66295036441872</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.221168845473868</v>
+        <v>-1.96489688352392</v>
       </c>
       <c r="G58" t="n">
-        <v>3.320412880023154</v>
+        <v>3.576342611492418</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-3.128745786899173</v>
       </c>
       <c r="E59" t="n">
-        <v>-17.23277153920575</v>
+        <v>-17.27943710975045</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.245872997172389</v>
+        <v>-1.987420538159797</v>
       </c>
       <c r="G59" t="n">
-        <v>3.289529023644852</v>
+        <v>3.559988883522587</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-3.050050020528302</v>
       </c>
       <c r="E60" t="n">
-        <v>-16.58569192434208</v>
+        <v>-16.57891576082454</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.374316985579978</v>
+        <v>-2.131299121246237</v>
       </c>
       <c r="G60" t="n">
-        <v>2.855473215986409</v>
+        <v>3.16522602405354</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-2.979465535356302</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.83464757845348</v>
+        <v>-15.9020718721551</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.203250635306624</v>
+        <v>-1.945057293657979</v>
       </c>
       <c r="G61" t="n">
-        <v>2.389237965129932</v>
+        <v>2.655943067733876</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-2.931829217811294</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.80304503806574</v>
+        <v>-15.75357806658629</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.561086825909864</v>
+        <v>-2.301681010558223</v>
       </c>
       <c r="G62" t="n">
-        <v>1.838960686231187</v>
+        <v>2.150395312660536</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-2.911953025231023</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.18209227589887</v>
+        <v>-15.2226954779286</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.742928547317898</v>
+        <v>-2.494816337828831</v>
       </c>
       <c r="G63" t="n">
-        <v>1.452978483095119</v>
+        <v>1.67911949572427</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-2.925312918875073</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.08575439558631</v>
+        <v>-15.10030896902912</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.984245037261953</v>
+        <v>-2.766073105825873</v>
       </c>
       <c r="G64" t="n">
-        <v>1.04577799015664</v>
+        <v>1.323781587630024</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-2.972238830338031</v>
       </c>
       <c r="E65" t="n">
-        <v>-14.73699220172807</v>
+        <v>-14.83818486585947</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.983638800410455</v>
+        <v>-2.821700225957632</v>
       </c>
       <c r="G65" t="n">
-        <v>0.9902975402308888</v>
+        <v>1.273429705907667</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-3.049180274038854</v>
       </c>
       <c r="E66" t="n">
-        <v>-14.62424681437014</v>
+        <v>-14.70501320781158</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.883629275940843</v>
+        <v>-2.705444531669261</v>
       </c>
       <c r="G66" t="n">
-        <v>0.4804034580528612</v>
+        <v>0.7043395285850335</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-3.153181091867867</v>
       </c>
       <c r="E67" t="n">
-        <v>-14.26098871515149</v>
+        <v>-14.30200259375804</v>
       </c>
       <c r="F67" t="n">
-        <v>-3.154162470921582</v>
+        <v>-2.9825387738654</v>
       </c>
       <c r="G67" t="n">
-        <v>0.4961558381780611</v>
+        <v>0.6792344783234252</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-3.273026569466176</v>
       </c>
       <c r="E68" t="n">
-        <v>-14.32224797119394</v>
+        <v>-14.39964583890407</v>
       </c>
       <c r="F68" t="n">
-        <v>-3.428958879890271</v>
+        <v>-3.249586106950028</v>
       </c>
       <c r="G68" t="n">
-        <v>0.520874656897183</v>
+        <v>0.6707031613406585</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-3.404483118941021</v>
       </c>
       <c r="E69" t="n">
-        <v>-14.20912613030726</v>
+        <v>-14.33926660409767</v>
       </c>
       <c r="F69" t="n">
-        <v>-3.370036569130212</v>
+        <v>-3.157345214391944</v>
       </c>
       <c r="G69" t="n">
-        <v>0.7266480669187664</v>
+        <v>0.9038550098169655</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-3.532706273840383</v>
       </c>
       <c r="E70" t="n">
-        <v>-14.3535962832246</v>
+        <v>-14.44215575361189</v>
       </c>
       <c r="F70" t="n">
-        <v>-3.701555235768847</v>
+        <v>-3.523179820229455</v>
       </c>
       <c r="G70" t="n">
-        <v>0.7409973020731617</v>
+        <v>0.8539969177881669</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-3.654153082896777</v>
       </c>
       <c r="E71" t="n">
-        <v>-14.18601579484735</v>
+        <v>-14.37833465797119</v>
       </c>
       <c r="F71" t="n">
-        <v>-3.649844210137488</v>
+        <v>-3.476797812083033</v>
       </c>
       <c r="G71" t="n">
-        <v>0.8386063241711187</v>
+        <v>0.9480956329556789</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-3.75590452672777</v>
       </c>
       <c r="E72" t="n">
-        <v>-14.15066338619269</v>
+        <v>-14.32317688249865</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.861142197918685</v>
+        <v>-3.704909094479551</v>
       </c>
       <c r="G72" t="n">
-        <v>0.7224924110818887</v>
+        <v>0.7979640100864547</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-3.835969309832216</v>
       </c>
       <c r="E73" t="n">
-        <v>-14.39663421067405</v>
+        <v>-14.49082092796517</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.73896591631448</v>
+        <v>-3.620026157256174</v>
       </c>
       <c r="G73" t="n">
-        <v>1.138282889085537</v>
+        <v>1.186077820216498</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-3.887214166503676</v>
       </c>
       <c r="E74" t="n">
-        <v>-14.9948628689235</v>
+        <v>-15.04416850317633</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.817297584336192</v>
+        <v>-3.707554047194552</v>
       </c>
       <c r="G74" t="n">
-        <v>1.471674045354201</v>
+        <v>1.551814645916671</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.909512278588644</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.08736287884553</v>
+        <v>-15.16975731157364</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.938217391175599</v>
+        <v>-3.841385721169482</v>
       </c>
       <c r="G75" t="n">
-        <v>1.723487233041523</v>
+        <v>1.759739218959697</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.903440919411031</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.49548250507499</v>
+        <v>-15.48126038409913</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.799271816017876</v>
+        <v>-3.704209966497582</v>
       </c>
       <c r="G76" t="n">
-        <v>2.004556237820463</v>
+        <v>2.000469028079722</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.871769647430247</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.08835281179829</v>
+        <v>-15.99613147526768</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.952713296536002</v>
+        <v>-3.905006367528646</v>
       </c>
       <c r="G77" t="n">
-        <v>2.372263333288003</v>
+        <v>2.40914600109201</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.821699897570695</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.93902045061403</v>
+        <v>-16.90442094901687</v>
       </c>
       <c r="F78" t="n">
-        <v>-4.298473640177961</v>
+        <v>-4.238084627357828</v>
       </c>
       <c r="G78" t="n">
-        <v>2.709639030153203</v>
+        <v>2.721167308345389</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.756098360816104</v>
       </c>
       <c r="E79" t="n">
-        <v>-17.62233249536839</v>
+        <v>-17.57658605811467</v>
       </c>
       <c r="F79" t="n">
-        <v>-4.030634287980893</v>
+        <v>-3.960002805774572</v>
       </c>
       <c r="G79" t="n">
-        <v>2.893803029823022</v>
+        <v>3.004592814434182</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.685308892152733</v>
       </c>
       <c r="E80" t="n">
-        <v>-18.37944409877884</v>
+        <v>-18.36315881690515</v>
       </c>
       <c r="F80" t="n">
-        <v>-4.128761544806742</v>
+        <v>-4.101265770187212</v>
       </c>
       <c r="G80" t="n">
-        <v>3.065871626504094</v>
+        <v>3.199845081678164</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.609372134912677</v>
       </c>
       <c r="E81" t="n">
-        <v>-19.54767228962817</v>
+        <v>-19.4930376378904</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.94796118186136</v>
+        <v>-3.902640088205059</v>
       </c>
       <c r="G81" t="n">
-        <v>3.437455704417097</v>
+        <v>3.603975278304221</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.538884921953555</v>
       </c>
       <c r="E82" t="n">
-        <v>-20.61424336069373</v>
+        <v>-20.57723357871119</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.903901451976723</v>
+        <v>-3.853344231965956</v>
       </c>
       <c r="G82" t="n">
-        <v>3.788765070853005</v>
+        <v>3.883460244858281</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.472383392725654</v>
       </c>
       <c r="E83" t="n">
-        <v>-21.69020621395064</v>
+        <v>-21.63052610712621</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.726865624318866</v>
+        <v>-3.727911871788386</v>
       </c>
       <c r="G83" t="n">
-        <v>4.14159980743139</v>
+        <v>4.261737373172091</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.418578163020222</v>
       </c>
       <c r="E84" t="n">
-        <v>-23.13491752113774</v>
+        <v>-23.08186690762485</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.882414266796632</v>
+        <v>-3.8319108258614</v>
       </c>
       <c r="G84" t="n">
-        <v>4.066235766577896</v>
+        <v>4.155425918851026</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.376061850189976</v>
       </c>
       <c r="E85" t="n">
-        <v>-24.05553218119843</v>
+        <v>-23.99082128630794</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.784032781613702</v>
+        <v>-3.746783438294677</v>
       </c>
       <c r="G85" t="n">
-        <v>4.346194966798047</v>
+        <v>4.410338736891971</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.349390667390449</v>
       </c>
       <c r="E86" t="n">
-        <v>-25.83010967070315</v>
+        <v>-25.8120594573505</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.80596975542555</v>
+        <v>-3.798122899404151</v>
       </c>
       <c r="G86" t="n">
-        <v>4.754999053988874</v>
+        <v>4.912566856302676</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.339112023571787</v>
       </c>
       <c r="E87" t="n">
-        <v>-26.96334723940597</v>
+        <v>-26.84084339434168</v>
       </c>
       <c r="F87" t="n">
-        <v>-3.644128961110064</v>
+        <v>-3.56481949171497</v>
       </c>
       <c r="G87" t="n">
-        <v>5.122051022536247</v>
+        <v>5.227164670174919</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.346340235547466</v>
       </c>
       <c r="E88" t="n">
-        <v>-28.56516189325451</v>
+        <v>-28.42686900051352</v>
       </c>
       <c r="F88" t="n">
-        <v>-3.46742069691229</v>
+        <v>-3.41569500426033</v>
       </c>
       <c r="G88" t="n">
-        <v>5.277501884876675</v>
+        <v>5.399873726755557</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.375341820656495</v>
       </c>
       <c r="E89" t="n">
-        <v>-30.12274570197808</v>
+        <v>-29.9301970555315</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.576479773092562</v>
+        <v>-3.548646656999215</v>
       </c>
       <c r="G89" t="n">
-        <v>5.502577094008839</v>
+        <v>5.642075126942522</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.424530204097505</v>
       </c>
       <c r="E90" t="n">
-        <v>-31.89758719785361</v>
+        <v>-31.8468295285613</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.65101268277868</v>
+        <v>-3.620827954382348</v>
       </c>
       <c r="G90" t="n">
-        <v>5.492784413254408</v>
+        <v>5.549369778732082</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.502438042085858</v>
       </c>
       <c r="E91" t="n">
-        <v>-33.71160430575373</v>
+        <v>-33.64206307207873</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.909147356344923</v>
+        <v>-3.774993007916777</v>
       </c>
       <c r="G91" t="n">
-        <v>5.199918234905602</v>
+        <v>5.333275675214441</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.605298553176219</v>
       </c>
       <c r="E92" t="n">
-        <v>-35.63602007771566</v>
+        <v>-35.5002352454974</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.736384520688749</v>
+        <v>-3.549345784981184</v>
       </c>
       <c r="G92" t="n">
-        <v>4.809961269186732</v>
+        <v>4.94152933298228</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.745043982148426</v>
       </c>
       <c r="E93" t="n">
-        <v>-37.83605850080679</v>
+        <v>-37.74745014035082</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.846802740778023</v>
+        <v>-3.657818180337426</v>
       </c>
       <c r="G93" t="n">
-        <v>4.709839297559181</v>
+        <v>4.879468279813661</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-3.917141594055713</v>
       </c>
       <c r="E94" t="n">
-        <v>-39.98316120204639</v>
+        <v>-39.93725342756606</v>
       </c>
       <c r="F94" t="n">
-        <v>-4.115776342568216</v>
+        <v>-3.832609953843369</v>
       </c>
       <c r="G94" t="n">
-        <v>4.529356720060148</v>
+        <v>4.756939989715039</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.130460602090205</v>
       </c>
       <c r="E95" t="n">
-        <v>-42.38195486580165</v>
+        <v>-42.38725454924538</v>
       </c>
       <c r="F95" t="n">
-        <v>-4.014544566381876</v>
+        <v>-3.723247759237349</v>
       </c>
       <c r="G95" t="n">
-        <v>4.31416219380602</v>
+        <v>4.549342980132097</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.385592760592281</v>
       </c>
       <c r="E96" t="n">
-        <v>-44.63542280043785</v>
+        <v>-44.55441195665307</v>
       </c>
       <c r="F96" t="n">
-        <v>-4.166382452647653</v>
+        <v>-3.849760589932507</v>
       </c>
       <c r="G96" t="n">
-        <v>3.676019683495079</v>
+        <v>3.999486155823906</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.679969257109326</v>
       </c>
       <c r="E97" t="n">
-        <v>-46.77346617195306</v>
+        <v>-46.75309612484206</v>
       </c>
       <c r="F97" t="n">
-        <v>-4.155616859526706</v>
+        <v>-3.815767325186847</v>
       </c>
       <c r="G97" t="n">
-        <v>3.238077115377439</v>
+        <v>3.599448057945458</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.024484433514347</v>
       </c>
       <c r="E98" t="n">
-        <v>-48.91195322084145</v>
+        <v>-48.87871164090157</v>
       </c>
       <c r="F98" t="n">
-        <v>-4.240240679386137</v>
+        <v>-3.861694655694646</v>
       </c>
       <c r="G98" t="n">
-        <v>2.861198243027566</v>
+        <v>3.288526777237134</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.397490653344118</v>
       </c>
       <c r="E99" t="n">
-        <v>-51.10780665405449</v>
+        <v>-51.06973717983354</v>
       </c>
       <c r="F99" t="n">
-        <v>-4.229479975272057</v>
+        <v>-3.774513885243819</v>
       </c>
       <c r="G99" t="n">
-        <v>2.505552327500705</v>
+        <v>3.01275745590193</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-5.828602460367268</v>
       </c>
       <c r="E100" t="n">
-        <v>-53.83991936122712</v>
+        <v>-53.8105755420119</v>
       </c>
       <c r="F100" t="n">
-        <v>-4.409170533658649</v>
+        <v>-3.948958539262211</v>
       </c>
       <c r="G100" t="n">
-        <v>2.01276976935688</v>
+        <v>2.498795720010629</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-6.25895655971673</v>
       </c>
       <c r="E101" t="n">
-        <v>-56.17780822193778</v>
+        <v>-56.1434336146565</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.442254443127062</v>
+        <v>-4.004800775696114</v>
       </c>
       <c r="G101" t="n">
-        <v>1.59582548573264</v>
+        <v>2.084980400781214</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-6.771763289558731</v>
       </c>
       <c r="E102" t="n">
-        <v>-58.29733386881869</v>
+        <v>-58.22744979353715</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.269359604285483</v>
+        <v>-3.838921661708556</v>
       </c>
       <c r="G102" t="n">
-        <v>0.971773093212148</v>
+        <v>1.540956161665253</v>
       </c>
     </row>
   </sheetData>
